--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -410,7 +410,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2022-12-21_22-35-18</t>
+    <t>2022-12-28_23-07-19</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -410,13 +410,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2022-12-28_23-07-19</t>
+    <t>2023-01-10_13-20-43</t>
   </si>
   <si>
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>6.0.9+dfsg-1~bpo11+1</t>
+    <t>6.0.10+dfsg-1~bpo11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -410,7 +410,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-10_13-20-43</t>
+    <t>2023-01-11_12-22-33</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -410,7 +410,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-11_12-22-33</t>
+    <t>2023-01-11_12-27-26</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -410,7 +410,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-11_12-27-26</t>
+    <t>2023-01-11_12-43-40</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>Row</t>
   </si>
@@ -26,28 +26,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
     <t>Quantity Per PCB</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Datasheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
+    <t>Comment</t>
   </si>
   <si>
     <t>1</t>
@@ -56,27 +44,15 @@
     <t>Unpolarized capacitor, small symbol</t>
   </si>
   <si>
-    <t>C_Small</t>
-  </si>
-  <si>
     <t>C1 C4 C5</t>
   </si>
   <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>C_Disc_D7.0mm_W2.5mm_P5.00mm</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -92,21 +68,12 @@
     <t>4</t>
   </si>
   <si>
-    <t>CP1_Small</t>
-  </si>
-  <si>
     <t>C2 C3</t>
   </si>
   <si>
     <t>10µ</t>
   </si>
   <si>
-    <t>CP_Radial_D5.0mm_P2.00mm</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -116,141 +83,93 @@
     <t>5</t>
   </si>
   <si>
-    <t>R_POT</t>
-  </si>
-  <si>
     <t>CUTCV1 CUTOFF1 Res1</t>
   </si>
   <si>
     <t>100k</t>
   </si>
   <si>
-    <t>Pot-bourns-alpha</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
     <t>Diode</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>D2 D3 D4 D5 D6 D7</t>
   </si>
   <si>
     <t>1N4148</t>
   </si>
   <si>
-    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>Light emitting diode</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
     <t>LED-12V</t>
   </si>
   <si>
-    <t>LED_D4.0mm</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>Ferrite_Bead_Small</t>
-  </si>
-  <si>
     <t>FB1 FB2</t>
   </si>
   <si>
     <t>10R</t>
   </si>
   <si>
-    <t>L_Axial_L9.5mm_D4.0mm_P12.70mm_Horizontal_Fastron_SMCC</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>Audio Jack, 2 Poles (Mono / TS), Switched Pole (Normalling)</t>
   </si>
   <si>
-    <t>AudioJack2_Switch</t>
-  </si>
-  <si>
     <t>J6 J7 J8</t>
   </si>
   <si>
     <t>FilterCV1</t>
   </si>
   <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x10, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
-    <t>Conn_01x10_Male</t>
-  </si>
-  <si>
     <t>J5</t>
   </si>
   <si>
     <t>Power Input</t>
   </si>
   <si>
-    <t>IDC-Header_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>0.1A Ic, 30V Vce, PNP Small Signal Transistor, TO-92</t>
   </si>
   <si>
+    <t>Q1 Q2</t>
+  </si>
+  <si>
     <t>BC559</t>
   </si>
   <si>
-    <t>Q1 Q2</t>
-  </si>
-  <si>
-    <t>TO-92_Inline_Wide</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/BC556BTA-D.pdf</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>R1 R3 R12 R13</t>
   </si>
   <si>
     <t>470</t>
   </si>
   <si>
-    <t>R_Axial_DIN0207_L6.3mm_D2.5mm_P10.16mm_Horizontal</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -320,9 +239,6 @@
     <t>3.3k</t>
   </si>
   <si>
-    <t>Potentiometer_Bourns_3386C_Horizontal</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -338,57 +254,36 @@
     <t>Momentary Switch, dual pole double throw</t>
   </si>
   <si>
-    <t>SW_Push_DPDT</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
     <t>Hpass/Lpass Switch</t>
   </si>
   <si>
-    <t>SW_DPDT_Toggle</t>
-  </si>
-  <si>
-    <t>DPDT Switch, On-Off-On</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>Dual Operational Transconductance Amplifiers with Linearizing Diodes and Buffers, DIP-16/SOIC-16</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>LM13700</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-16_3.9x9.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/lm13700.pdf</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>Dual Low-Noise JFET-Input Operational Amplifiers, DIP-8/SOIC-8</t>
   </si>
   <si>
+    <t>U2</t>
+  </si>
+  <si>
     <t>TL072</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>DIP-8_W7.62mm_Socket</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -410,7 +305,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-11_12-43-40</t>
+    <t>2023-01-11_19-26-04</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -423,6 +318,9 @@
   </si>
   <si>
     <t>Component Count:</t>
+  </si>
+  <si>
+    <t>55 (1 SMD/ 54 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -931,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -942,99 +840,91 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:6" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:6">
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:6">
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:6">
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1053,790 +943,490 @@
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="D12" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F16" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30.0" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.0" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="F27" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="9" t="s">
+      <c r="B28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="9" t="s">
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30.0" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30.0" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="9" t="s">
+      <c r="C32" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30.0" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="30.0" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>19</v>
+      <c r="E32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1857,22 +1447,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/BoM/MS20-VCF-bom.xlsx
+++ b/Documentation/BoM/MS20-VCF-bom.xlsx
@@ -305,7 +305,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-11_19-26-04</t>
+    <t>2023-01-12_18-05-41</t>
   </si>
   <si>
     <t>KiCad Version:</t>
